--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H2">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N2">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O2">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P2">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q2">
-        <v>6.92951519638389</v>
+        <v>0.00559876296</v>
       </c>
       <c r="R2">
-        <v>62.36563676745502</v>
+        <v>0.05038886664</v>
       </c>
       <c r="S2">
-        <v>0.001843496819551689</v>
+        <v>8.57992501314881E-05</v>
       </c>
       <c r="T2">
-        <v>0.001843496819551688</v>
+        <v>8.579925013148808E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H3">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I3">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J3">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N3">
         <v>0.25036</v>
       </c>
       <c r="O3">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P3">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q3">
-        <v>0.06261656597777779</v>
+        <v>0.02169152421333333</v>
       </c>
       <c r="R3">
-        <v>0.5635490938000002</v>
+        <v>0.19522371792</v>
       </c>
       <c r="S3">
-        <v>1.665822744591423E-05</v>
+        <v>0.0003324156648548338</v>
       </c>
       <c r="T3">
-        <v>1.665822744591422E-05</v>
+        <v>0.0003324156648548337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H4">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I4">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J4">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.173964</v>
       </c>
       <c r="O4">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P4">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q4">
-        <v>0.04350945951333334</v>
+        <v>0.015072472912</v>
       </c>
       <c r="R4">
-        <v>0.3915851356200001</v>
+        <v>0.135652256208</v>
       </c>
       <c r="S4">
-        <v>1.157505943202198E-05</v>
+        <v>0.000230980822498827</v>
       </c>
       <c r="T4">
-        <v>1.157505943202198E-05</v>
+        <v>0.0002309808224988269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>383.1307676666666</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H5">
         <v>1149.392303</v>
       </c>
       <c r="I5">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J5">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N5">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O5">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P5">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q5">
-        <v>3538.378790444578</v>
+        <v>8.252636735540001</v>
       </c>
       <c r="R5">
-        <v>31845.4091140012</v>
+        <v>74.27373061986</v>
       </c>
       <c r="S5">
-        <v>0.9413342581249695</v>
+        <v>0.1264690162051268</v>
       </c>
       <c r="T5">
-        <v>0.9413342581249692</v>
+        <v>0.1264690162051268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>383.1307676666666</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H6">
         <v>1149.392303</v>
       </c>
       <c r="I6">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J6">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,16 +800,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N6">
         <v>0.25036</v>
       </c>
       <c r="O6">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P6">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q6">
         <v>31.97353966434222</v>
@@ -818,10 +818,10 @@
         <v>287.76185697908</v>
       </c>
       <c r="S6">
-        <v>0.008506095594073252</v>
+        <v>0.4899842602462945</v>
       </c>
       <c r="T6">
-        <v>0.008506095594073251</v>
+        <v>0.4899842602462944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>383.1307676666666</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H7">
         <v>1149.392303</v>
       </c>
       <c r="I7">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J7">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.173964</v>
       </c>
       <c r="O7">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P7">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q7">
         <v>22.21698695545467</v>
@@ -880,10 +880,10 @@
         <v>199.952882599092</v>
       </c>
       <c r="S7">
-        <v>0.005910506526311548</v>
+        <v>0.3404682131709794</v>
       </c>
       <c r="T7">
-        <v>0.005910506526311547</v>
+        <v>0.3404682131709793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.98778433333334</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H8">
-        <v>50.96335300000001</v>
+        <v>50.963353</v>
       </c>
       <c r="I8">
-        <v>0.04237740964821623</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="J8">
-        <v>0.04237740964821622</v>
+        <v>0.04242931464011399</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>9.235433666666667</v>
+        <v>0.02154</v>
       </c>
       <c r="N8">
-        <v>27.706301</v>
+        <v>0.06462</v>
       </c>
       <c r="O8">
-        <v>0.9849159412561933</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="P8">
-        <v>0.9849159412561931</v>
+        <v>0.1321623744232468</v>
       </c>
       <c r="Q8">
-        <v>156.8895553541393</v>
+        <v>0.36591687454</v>
       </c>
       <c r="R8">
-        <v>1412.005998187253</v>
+        <v>3.29325187086</v>
       </c>
       <c r="S8">
-        <v>0.04173818631167218</v>
+        <v>0.005607558967988494</v>
       </c>
       <c r="T8">
-        <v>0.04173818631167216</v>
+        <v>0.005607558967988494</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.98778433333334</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H9">
-        <v>50.96335300000001</v>
+        <v>50.963353</v>
       </c>
       <c r="I9">
-        <v>0.04237740964821623</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="J9">
-        <v>0.04237740964821622</v>
+        <v>0.04242931464011399</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08345333333333334</v>
+        <v>0.08345333333333332</v>
       </c>
       <c r="N9">
         <v>0.25036</v>
       </c>
       <c r="O9">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="P9">
-        <v>0.008899908907107467</v>
+        <v>0.5120422788703818</v>
       </c>
       <c r="Q9">
-        <v>1.417687228564445</v>
+        <v>1.417687228564444</v>
       </c>
       <c r="R9">
-        <v>12.75918505708001</v>
+        <v>12.75918505708</v>
       </c>
       <c r="S9">
-        <v>0.0003771550855883015</v>
+        <v>0.02172560295923243</v>
       </c>
       <c r="T9">
-        <v>0.0003771550855883015</v>
+        <v>0.02172560295923242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.98778433333334</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H10">
-        <v>50.96335300000001</v>
+        <v>50.963353</v>
       </c>
       <c r="I10">
-        <v>0.04237740964821623</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="J10">
-        <v>0.04237740964821622</v>
+        <v>0.04242931464011399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>0.173964</v>
       </c>
       <c r="O10">
-        <v>0.006184149836699327</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="P10">
-        <v>0.006184149836699326</v>
+        <v>0.3557953467063713</v>
       </c>
       <c r="Q10">
-        <v>0.9850876379213337</v>
+        <v>0.9850876379213335</v>
       </c>
       <c r="R10">
-        <v>8.865788741292002</v>
+        <v>8.865788741292</v>
       </c>
       <c r="S10">
-        <v>0.0002620682509557569</v>
+        <v>0.01509615271289308</v>
       </c>
       <c r="T10">
-        <v>0.0002620682509557568</v>
+        <v>0.01509615271289307</v>
       </c>
     </row>
   </sheetData>
